--- a/trunk/NIF/Lista_Confirmados_mesas.xlsx
+++ b/trunk/NIF/Lista_Confirmados_mesas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>Nombre del Invitado</t>
   </si>
@@ -238,6 +238,45 @@
   </si>
   <si>
     <t>tia lucha</t>
+  </si>
+  <si>
+    <t>mesa principal</t>
+  </si>
+  <si>
+    <t>mesa n°1</t>
+  </si>
+  <si>
+    <t>mesa n°2</t>
+  </si>
+  <si>
+    <t>mesa n°9</t>
+  </si>
+  <si>
+    <t>mesa n°12</t>
+  </si>
+  <si>
+    <t>mesa n°7</t>
+  </si>
+  <si>
+    <t>mesa n°8</t>
+  </si>
+  <si>
+    <t>mesa n°10</t>
+  </si>
+  <si>
+    <t>mesa n°11</t>
+  </si>
+  <si>
+    <t>mesa n°3</t>
+  </si>
+  <si>
+    <t>mesa n°4</t>
+  </si>
+  <si>
+    <t>mesa n°5</t>
+  </si>
+  <si>
+    <t>mesa n°6</t>
   </si>
 </sst>
 </file>
@@ -343,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,15 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -400,6 +430,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -703,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" activeCellId="1" sqref="D4:E50 J12:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,47 +760,47 @@
     <col min="7" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -786,728 +828,787 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="23">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="23">
-        <v>2</v>
-      </c>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="20">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="23">
-        <v>2</v>
-      </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="13">
-        <v>4</v>
-      </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="23">
-        <v>2</v>
-      </c>
-      <c r="E9" s="23">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="13">
-        <v>2</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="16">
         <v>4</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="G12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="13">
+        <v>4</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="19">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="13">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="13">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="19">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B19" s="17"/>
+      <c r="C19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="13">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="19">
-        <v>2</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="16">
+        <v>2</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="13">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="19">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="16">
         <v>3</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="G23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="13">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="13">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="19">
-        <v>2</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="13">
-        <v>2</v>
-      </c>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="16">
+        <v>2</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="19">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="13">
-        <v>2</v>
-      </c>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="13">
-        <v>2</v>
-      </c>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="13">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="13">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="19">
-        <v>2</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="13">
-        <v>2</v>
-      </c>
-      <c r="J28" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="16">
+        <v>2</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="19">
-        <v>2</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="13">
-        <v>1</v>
-      </c>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="16">
+        <v>2</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="13">
+        <v>2</v>
+      </c>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="16">
+        <v>2</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="13">
+        <v>2</v>
+      </c>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="19">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="13">
-        <v>2</v>
-      </c>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="13">
+        <v>2</v>
+      </c>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="19">
-        <v>2</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="13">
-        <v>2</v>
-      </c>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
-      <c r="F33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="13">
-        <v>2</v>
-      </c>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B32" s="15"/>
+      <c r="C32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="16">
+        <v>2</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="13">
+        <v>2</v>
+      </c>
+      <c r="K32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="19">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="13">
-        <v>2</v>
-      </c>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B34" s="15"/>
+      <c r="C34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="16">
+        <v>1</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="B35" s="15"/>
+      <c r="C35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="16">
         <v>2</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="13">
-        <v>2</v>
+      <c r="G35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="J35" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="16">
+        <v>2</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="13">
+        <v>2</v>
+      </c>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B37" s="15"/>
+      <c r="C37" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="16">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="13">
+        <v>2</v>
+      </c>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B38" s="15"/>
+      <c r="C38" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="13">
+        <v>2</v>
+      </c>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" ht="21.75" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="16">
+        <v>2</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="13">
+        <v>2</v>
+      </c>
+      <c r="K39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B41" s="15"/>
+      <c r="C41" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B44" s="15"/>
+      <c r="C44" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B45" s="15"/>
+      <c r="C45" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="19">
+      <c r="B47" s="15"/>
+      <c r="C47" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="16">
         <v>1</v>
       </c>
       <c r="E47" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="19">
+      <c r="B48" s="15"/>
+      <c r="C48" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="16">
         <v>2</v>
       </c>
       <c r="E48" s="13"/>
@@ -1516,11 +1617,11 @@
       <c r="A49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="19">
+      <c r="B49" s="15"/>
+      <c r="C49" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="16">
         <v>1</v>
       </c>
       <c r="E49" s="11"/>
@@ -1529,11 +1630,11 @@
       <c r="A50" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="19">
+      <c r="B50" s="15"/>
+      <c r="C50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="16">
         <v>2</v>
       </c>
       <c r="E50" s="11"/>
